--- a/Texte/LU_Stimmrechtsalter_texte.xlsx
+++ b/Texte/LU_Stimmrechtsalter_texte.xlsx
@@ -503,253 +503,253 @@
     <t>Willisau LU</t>
   </si>
   <si>
+    <t>Intro_Ja;KantonPhrase_Ja_Nein</t>
+  </si>
+  <si>
     <t>Intro_Nein;KantonPhrase_Nein_Nein</t>
   </si>
   <si>
-    <t>Intro_Ja;KantonPhrase_Ja_Nein</t>
-  </si>
-  <si>
     <t>Intro_Nein;KantonPhrase_Highest_No_Kant</t>
   </si>
   <si>
     <t>Intro_Ja;KantonPhrase_Highest_Yes_Kant</t>
   </si>
   <si>
-    <t>Keine Mehrheit für das Stimmrechtsalter 16 in Doppleschwand. 50,6 Prozent haben es verworfen. Doppleschwand hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Entlebuch hat das Stimmrechtsalter 16 mit 56,3 Prozent angenommen. Entlebuch hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>94,2 Prozent der Stimmbürgerinnen und Stimmbürger von Flühli haben dem Stimmrechtsalter 16 zugestimmt. Flühli hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Mit 82,9 Prozent Ja hat sich Hasle LU für das Stimmrechtsalter 16 ausgesprochen. Hasle LU hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Keine Mehrheit für das Stimmrechtsalter 16 in Romoos. 97,4 Prozent haben es verworfen. Romoos hat damit bei dieser Vorlage den höchsten Nein-Anteil im Kanton.</t>
-  </si>
-  <si>
-    <t>Nein zum Stimmrechtsalter 16 in Schüpfheim: 89,9 Prozent haben die Vorlage abgelehnt. Schüpfheim hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Mit 74,3 Prozent Ja hat sich Werthenstein für das Stimmrechtsalter 16 ausgesprochen. Werthenstein hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Mit 60,7 Prozent Ja hat sich Escholzmatt-Marbach für das Stimmrechtsalter 16 ausgesprochen. Escholzmatt-Marbach hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Mit 52,4 Prozent Ja hat sich Aesch LU für das Stimmrechtsalter 16 ausgesprochen. Aesch LU hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Nein zum Stimmrechtsalter 16 in Ballwil: 72,3 Prozent haben die Vorlage abgelehnt. Ballwil hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Emmen hat das Stimmrechtsalter 16 mit 52,4 Prozent abgelehnt. Emmen hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>64,5 Prozent der Stimmbürgerinnen und Stimmbürger von Ermensee haben dem Stimmrechtsalter 16 zugestimmt. Ermensee hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>61 Prozent der Stimmbürgerinnen und Stimmbürger von Eschenbach LU haben dem Stimmrechtsalter 16 zugestimmt. Eschenbach LU hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Mit 65,7 Prozent Ja hat sich Hitzkirch für das Stimmrechtsalter 16 ausgesprochen. Hitzkirch hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Mit 75,2 Prozent Ja hat sich Hochdorf für das Stimmrechtsalter 16 ausgesprochen. Hochdorf hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Mit 96,5 Prozent Ja hat sich Hohenrain für das Stimmrechtsalter 16 ausgesprochen. Hohenrain hat damit bei dieser Vorlage den höchsten Ja-Anteil im Kanton.</t>
-  </si>
-  <si>
-    <t>Inwil hat das Stimmrechtsalter 16 mit 54,2 Prozent abgelehnt. Inwil hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Rain hat das Stimmrechtsalter 16 mit 75,5 Prozent abgelehnt. Rain hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Mit 60,2 Prozent Ja hat sich Römerswil für das Stimmrechtsalter 16 ausgesprochen. Römerswil hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>72,1 Prozent der Stimmbürgerinnen und Stimmbürger von Rothenburg haben dem Stimmrechtsalter 16 zugestimmt. Rothenburg hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Mit 50,8 Prozent Ja hat sich Schongau für das Stimmrechtsalter 16 ausgesprochen. Schongau hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Adligenswil hat das Stimmrechtsalter 16 mit 61,2 Prozent abgelehnt. Adligenswil hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Nein zum Stimmrechtsalter 16 in Buchrain: 50,8 Prozent haben die Vorlage abgelehnt. Buchrain hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Dierikon hat das Stimmrechtsalter 16 mit 73,2 Prozent angenommen. Dierikon hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Nein zum Stimmrechtsalter 16 in Ebikon: 78,6 Prozent haben die Vorlage abgelehnt. Ebikon hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>80,7 Prozent der Stimmbürgerinnen und Stimmbürger von Gisikon haben dem Stimmrechtsalter 16 zugestimmt. Gisikon hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Greppen hat das Stimmrechtsalter 16 mit 59,9 Prozent angenommen. Greppen hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Horw hat das Stimmrechtsalter 16 mit 52,5 Prozent angenommen. Horw hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Keine Mehrheit für das Stimmrechtsalter 16 in Kriens. 82,2 Prozent haben es verworfen. Kriens hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>69,3 Prozent der Stimmbürgerinnen und Stimmbürger von Luzern haben dem Stimmrechtsalter 16 zugestimmt. Luzern hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Mit 77,5 Prozent Ja hat sich Malters für das Stimmrechtsalter 16 ausgesprochen. Malters hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Nein zum Stimmrechtsalter 16 in Meggen: 68,5 Prozent haben die Vorlage abgelehnt. Meggen hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Meierskappel hat das Stimmrechtsalter 16 mit 78,5 Prozent angenommen. Meierskappel hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Nein zum Stimmrechtsalter 16 in Root: 68 Prozent haben die Vorlage abgelehnt. Root hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Mit 87,3 Prozent Ja hat sich Schwarzenberg für das Stimmrechtsalter 16 ausgesprochen. Schwarzenberg hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Mit 71,1 Prozent Ja hat sich Udligenswil für das Stimmrechtsalter 16 ausgesprochen. Udligenswil hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Vitznau hat das Stimmrechtsalter 16 mit 58,5 Prozent angenommen. Vitznau hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>64,5 Prozent der Stimmbürgerinnen und Stimmbürger von Weggis haben dem Stimmrechtsalter 16 zugestimmt. Weggis hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Nein zum Stimmrechtsalter 16 in Beromünster: 59,2 Prozent haben die Vorlage abgelehnt. Beromünster hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Büron hat das Stimmrechtsalter 16 mit 52,6 Prozent angenommen. Büron hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Buttisholz hat das Stimmrechtsalter 16 mit 67,7 Prozent angenommen. Buttisholz hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Eich hat das Stimmrechtsalter 16 mit 87,1 Prozent angenommen. Eich hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Geuensee hat das Stimmrechtsalter 16 mit 86,4 Prozent angenommen. Geuensee hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Keine Mehrheit für das Stimmrechtsalter 16 in Grosswangen. 75,7 Prozent haben es verworfen. Grosswangen hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Hildisrieden hat das Stimmrechtsalter 16 mit 74,9 Prozent abgelehnt. Hildisrieden hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Nein zum Stimmrechtsalter 16 in Knutwil: 87,1 Prozent haben die Vorlage abgelehnt. Knutwil hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Mauensee hat das Stimmrechtsalter 16 mit 55 Prozent angenommen. Mauensee hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Mit 65,2 Prozent Ja hat sich Neuenkirch für das Stimmrechtsalter 16 ausgesprochen. Neuenkirch hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Keine Mehrheit für das Stimmrechtsalter 16 in Nottwil. 56 Prozent haben es verworfen. Nottwil hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Nein zum Stimmrechtsalter 16 in Oberkirch: 58,6 Prozent haben die Vorlage abgelehnt. Oberkirch hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>84,1 Prozent der Stimmbürgerinnen und Stimmbürger von Rickenbach LU haben dem Stimmrechtsalter 16 zugestimmt. Rickenbach LU hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Mit 52,6 Prozent Ja hat sich Ruswil für das Stimmrechtsalter 16 ausgesprochen. Ruswil hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Mit 69,1 Prozent Ja hat sich Schenkon für das Stimmrechtsalter 16 ausgesprochen. Schenkon hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Nein zum Stimmrechtsalter 16 in Schlierbach: 52,4 Prozent haben die Vorlage abgelehnt. Schlierbach hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Mit 89,8 Prozent Ja hat sich Sempach für das Stimmrechtsalter 16 ausgesprochen. Sempach hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Mit 71 Prozent Ja hat sich Sursee für das Stimmrechtsalter 16 ausgesprochen. Sursee hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Keine Mehrheit für das Stimmrechtsalter 16 in Triengen. 60,7 Prozent haben es verworfen. Triengen hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Nein zum Stimmrechtsalter 16 in Wolhusen: 61,8 Prozent haben die Vorlage abgelehnt. Wolhusen hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Alberswil hat das Stimmrechtsalter 16 mit 54,6 Prozent angenommen. Alberswil hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Nein zum Stimmrechtsalter 16 in Altbüron: 62,9 Prozent haben die Vorlage abgelehnt. Altbüron hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Mit 57,5 Prozent Ja hat sich Altishofen für das Stimmrechtsalter 16 ausgesprochen. Altishofen hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>89,8 Prozent der Stimmbürgerinnen und Stimmbürger von Dagmersellen haben dem Stimmrechtsalter 16 zugestimmt. Dagmersellen hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Mit 63,4 Prozent Ja hat sich Egolzwil für das Stimmrechtsalter 16 ausgesprochen. Egolzwil hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Ettiswil hat das Stimmrechtsalter 16 mit 76,4 Prozent angenommen. Ettiswil hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Mit 66,9 Prozent Ja hat sich Fischbach für das Stimmrechtsalter 16 ausgesprochen. Fischbach hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Nein zum Stimmrechtsalter 16 in Grossdietwil: 71,7 Prozent haben die Vorlage abgelehnt. Grossdietwil hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Hergiswil bei Willisau hat das Stimmrechtsalter 16 mit 69,3 Prozent abgelehnt. Hergiswil bei Willisau hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Luthern hat das Stimmrechtsalter 16 mit 65,7 Prozent angenommen. Luthern hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Menznau hat das Stimmrechtsalter 16 mit 63,2 Prozent angenommen. Menznau hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Nebikon hat das Stimmrechtsalter 16 mit 60,2 Prozent angenommen. Nebikon hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Pfaffnau hat das Stimmrechtsalter 16 mit 51,3 Prozent abgelehnt. Pfaffnau hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Keine Mehrheit für das Stimmrechtsalter 16 in Reiden. 91,9 Prozent haben es verworfen. Reiden hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Keine Mehrheit für das Stimmrechtsalter 16 in Roggliswil. 61,6 Prozent haben es verworfen. Roggliswil hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Keine Mehrheit für das Stimmrechtsalter 16 in Schötz. 53,3 Prozent haben es verworfen. Schötz hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Ufhusen hat das Stimmrechtsalter 16 mit 68,5 Prozent angenommen. Ufhusen hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>68,8 Prozent der Stimmbürgerinnen und Stimmbürger von Wauwil haben dem Stimmrechtsalter 16 zugestimmt. Wauwil hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Keine Mehrheit für das Stimmrechtsalter 16 in Wikon. 74,5 Prozent haben es verworfen. Wikon hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Mit 84,7 Prozent Ja hat sich Zell LU für das Stimmrechtsalter 16 ausgesprochen. Zell LU hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
-  </si>
-  <si>
-    <t>Willisau hat das Stimmrechtsalter 16 mit 83,2 Prozent abgelehnt. Willisau hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
+    <t>75,8 Prozent der Stimmbürgerinnen und Stimmbürger von Doppleschwand haben dem Stimmrechtsalter 16 zugestimmt. Doppleschwand hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Entlebuch hat das Stimmrechtsalter 16 mit 67,8 Prozent angenommen. Entlebuch hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für das Stimmrechtsalter 16 in Flühli. 68 Prozent haben es verworfen. Flühli hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Nein zum Stimmrechtsalter 16 in Hasle LU: 54,6 Prozent haben die Vorlage abgelehnt. Hasle LU hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>50,5 Prozent der Stimmbürgerinnen und Stimmbürger von Romoos haben dem Stimmrechtsalter 16 zugestimmt. Romoos hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Nein zum Stimmrechtsalter 16 in Schüpfheim: 57,1 Prozent haben die Vorlage abgelehnt. Schüpfheim hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Nein zum Stimmrechtsalter 16 in Werthenstein: 72,6 Prozent haben die Vorlage abgelehnt. Werthenstein hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Mit 56,9 Prozent Ja hat sich Escholzmatt-Marbach für das Stimmrechtsalter 16 ausgesprochen. Escholzmatt-Marbach hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Nein zum Stimmrechtsalter 16 in Aesch LU: 58,8 Prozent haben die Vorlage abgelehnt. Aesch LU hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Mit 53 Prozent Ja hat sich Ballwil für das Stimmrechtsalter 16 ausgesprochen. Ballwil hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Emmen hat das Stimmrechtsalter 16 mit 71,1 Prozent abgelehnt. Emmen hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für das Stimmrechtsalter 16 in Ermensee. 69,4 Prozent haben es verworfen. Ermensee hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>69,5 Prozent der Stimmbürgerinnen und Stimmbürger von Eschenbach LU haben dem Stimmrechtsalter 16 zugestimmt. Eschenbach LU hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Nein zum Stimmrechtsalter 16 in Hitzkirch: 64,6 Prozent haben die Vorlage abgelehnt. Hitzkirch hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Nein zum Stimmrechtsalter 16 in Hochdorf: 69,8 Prozent haben die Vorlage abgelehnt. Hochdorf hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Nein zum Stimmrechtsalter 16 in Hohenrain: 61,9 Prozent haben die Vorlage abgelehnt. Hohenrain hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Inwil hat das Stimmrechtsalter 16 mit 66,1 Prozent abgelehnt. Inwil hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Rain hat das Stimmrechtsalter 16 mit 98,9 Prozent abgelehnt. Rain hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Nein zum Stimmrechtsalter 16 in Römerswil: 57,3 Prozent haben die Vorlage abgelehnt. Römerswil hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für das Stimmrechtsalter 16 in Rothenburg. 62,2 Prozent haben es verworfen. Rothenburg hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Nein zum Stimmrechtsalter 16 in Schongau: 86,7 Prozent haben die Vorlage abgelehnt. Schongau hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Adligenswil hat das Stimmrechtsalter 16 mit 99 Prozent abgelehnt. Adligenswil hat damit bei dieser Vorlage den höchsten Nein-Anteil im Kanton.</t>
+  </si>
+  <si>
+    <t>Nein zum Stimmrechtsalter 16 in Buchrain: 55,5 Prozent haben die Vorlage abgelehnt. Buchrain hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Dierikon hat das Stimmrechtsalter 16 mit 69 Prozent abgelehnt. Dierikon hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Mit 64,2 Prozent Ja hat sich Ebikon für das Stimmrechtsalter 16 ausgesprochen. Ebikon hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für das Stimmrechtsalter 16 in Gisikon. 81,3 Prozent haben es verworfen. Gisikon hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Greppen hat das Stimmrechtsalter 16 mit 78,3 Prozent angenommen. Greppen hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Horw hat das Stimmrechtsalter 16 mit 76,3 Prozent abgelehnt. Horw hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>59,8 Prozent der Stimmbürgerinnen und Stimmbürger von Kriens haben dem Stimmrechtsalter 16 zugestimmt. Kriens hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>60,2 Prozent der Stimmbürgerinnen und Stimmbürger von Luzern haben dem Stimmrechtsalter 16 zugestimmt. Luzern hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Nein zum Stimmrechtsalter 16 in Malters: 85,4 Prozent haben die Vorlage abgelehnt. Malters hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Mit 94,4 Prozent Ja hat sich Meggen für das Stimmrechtsalter 16 ausgesprochen. Meggen hat damit bei dieser Vorlage den höchsten Ja-Anteil im Kanton.</t>
+  </si>
+  <si>
+    <t>Meierskappel hat das Stimmrechtsalter 16 mit 53 Prozent angenommen. Meierskappel hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Mit 74,8 Prozent Ja hat sich Root für das Stimmrechtsalter 16 ausgesprochen. Root hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Nein zum Stimmrechtsalter 16 in Schwarzenberg: 70,5 Prozent haben die Vorlage abgelehnt. Schwarzenberg hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Mit 55,5 Prozent Ja hat sich Udligenswil für das Stimmrechtsalter 16 ausgesprochen. Udligenswil hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Vitznau hat das Stimmrechtsalter 16 mit 51 Prozent angenommen. Vitznau hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>88,1 Prozent der Stimmbürgerinnen und Stimmbürger von Weggis haben dem Stimmrechtsalter 16 zugestimmt. Weggis hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Mit 71,3 Prozent Ja hat sich Beromünster für das Stimmrechtsalter 16 ausgesprochen. Beromünster hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Büron hat das Stimmrechtsalter 16 mit 50,7 Prozent abgelehnt. Büron hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Buttisholz hat das Stimmrechtsalter 16 mit 54,2 Prozent abgelehnt. Buttisholz hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Eich hat das Stimmrechtsalter 16 mit 80,4 Prozent angenommen. Eich hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Geuensee hat das Stimmrechtsalter 16 mit 69,7 Prozent angenommen. Geuensee hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>86 Prozent der Stimmbürgerinnen und Stimmbürger von Grosswangen haben dem Stimmrechtsalter 16 zugestimmt. Grosswangen hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Hildisrieden hat das Stimmrechtsalter 16 mit 59,5 Prozent abgelehnt. Hildisrieden hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Mit 72,6 Prozent Ja hat sich Knutwil für das Stimmrechtsalter 16 ausgesprochen. Knutwil hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Mauensee hat das Stimmrechtsalter 16 mit 70,4 Prozent abgelehnt. Mauensee hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Mit 73,2 Prozent Ja hat sich Neuenkirch für das Stimmrechtsalter 16 ausgesprochen. Neuenkirch hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für das Stimmrechtsalter 16 in Nottwil. 54,3 Prozent haben es verworfen. Nottwil hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Nein zum Stimmrechtsalter 16 in Oberkirch: 53,2 Prozent haben die Vorlage abgelehnt. Oberkirch hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>68,4 Prozent der Stimmbürgerinnen und Stimmbürger von Rickenbach LU haben dem Stimmrechtsalter 16 zugestimmt. Rickenbach LU hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Nein zum Stimmrechtsalter 16 in Ruswil: 74,4 Prozent haben die Vorlage abgelehnt. Ruswil hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Mit 75,7 Prozent Ja hat sich Schenkon für das Stimmrechtsalter 16 ausgesprochen. Schenkon hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Nein zum Stimmrechtsalter 16 in Schlierbach: 50,8 Prozent haben die Vorlage abgelehnt. Schlierbach hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Mit 71,1 Prozent Ja hat sich Sempach für das Stimmrechtsalter 16 ausgesprochen. Sempach hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Mit 87,7 Prozent Ja hat sich Sursee für das Stimmrechtsalter 16 ausgesprochen. Sursee hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für das Stimmrechtsalter 16 in Triengen. 85,4 Prozent haben es verworfen. Triengen hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Nein zum Stimmrechtsalter 16 in Wolhusen: 86,2 Prozent haben die Vorlage abgelehnt. Wolhusen hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Alberswil hat das Stimmrechtsalter 16 mit 58,9 Prozent abgelehnt. Alberswil hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Nein zum Stimmrechtsalter 16 in Altbüron: 63 Prozent haben die Vorlage abgelehnt. Altbüron hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Mit 64,3 Prozent Ja hat sich Altishofen für das Stimmrechtsalter 16 ausgesprochen. Altishofen hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für das Stimmrechtsalter 16 in Dagmersellen. 70 Prozent haben es verworfen. Dagmersellen hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Nein zum Stimmrechtsalter 16 in Egolzwil: 61,2 Prozent haben die Vorlage abgelehnt. Egolzwil hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Ettiswil hat das Stimmrechtsalter 16 mit 67 Prozent abgelehnt. Ettiswil hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Mit 89,9 Prozent Ja hat sich Fischbach für das Stimmrechtsalter 16 ausgesprochen. Fischbach hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Nein zum Stimmrechtsalter 16 in Grossdietwil: 93,2 Prozent haben die Vorlage abgelehnt. Grossdietwil hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Hergiswil bei Willisau hat das Stimmrechtsalter 16 mit 51,6 Prozent abgelehnt. Hergiswil bei Willisau hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Luthern hat das Stimmrechtsalter 16 mit 74,2 Prozent angenommen. Luthern hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Menznau hat das Stimmrechtsalter 16 mit 93,4 Prozent angenommen. Menznau hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Nebikon hat das Stimmrechtsalter 16 mit 80,2 Prozent angenommen. Nebikon hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Pfaffnau hat das Stimmrechtsalter 16 mit 85 Prozent angenommen. Pfaffnau hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für das Stimmrechtsalter 16 in Reiden. 54,7 Prozent haben es verworfen. Reiden hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für das Stimmrechtsalter 16 in Roggliswil. 62,6 Prozent haben es verworfen. Roggliswil hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für das Stimmrechtsalter 16 in Schötz. 94 Prozent haben es verworfen. Schötz hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Ufhusen hat das Stimmrechtsalter 16 mit 78,5 Prozent abgelehnt. Ufhusen hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für das Stimmrechtsalter 16 in Wauwil. 97,9 Prozent haben es verworfen. Wauwil hat damit gleich abgestimmt wie der Kanton, der die Vorlage auch abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>85,9 Prozent der Stimmbürgerinnen und Stimmbürger von Wikon haben dem Stimmrechtsalter 16 zugestimmt. Wikon hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Mit 52,7 Prozent Ja hat sich Zell LU für das Stimmrechtsalter 16 ausgesprochen. Zell LU hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
+  </si>
+  <si>
+    <t>Willisau hat das Stimmrechtsalter 16 mit 79,7 Prozent angenommen. Willisau hat damit anders abgestimmt als der gesamte Kanton, der die Vorlage abgelehnt hat.</t>
   </si>
   <si>
     <t>NA NA</t>
@@ -849,7 +849,7 @@
         <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D3" t="s">
         <v>168</v>
@@ -909,7 +909,7 @@
         <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D6" t="s">
         <v>171</v>
@@ -929,7 +929,7 @@
         <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D7" t="s">
         <v>172</v>
@@ -969,7 +969,7 @@
         <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D9" t="s">
         <v>174</v>
@@ -1029,7 +1029,7 @@
         <v>94</v>
       </c>
       <c r="C12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D12" t="s">
         <v>177</v>
@@ -1069,7 +1069,7 @@
         <v>96</v>
       </c>
       <c r="C14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D14" t="s">
         <v>179</v>
@@ -1129,7 +1129,7 @@
         <v>99</v>
       </c>
       <c r="C17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D17" t="s">
         <v>182</v>
@@ -1149,7 +1149,7 @@
         <v>100</v>
       </c>
       <c r="C18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D18" t="s">
         <v>183</v>
@@ -1169,7 +1169,7 @@
         <v>101</v>
       </c>
       <c r="C19" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D19" t="s">
         <v>184</v>
@@ -1249,7 +1249,7 @@
         <v>105</v>
       </c>
       <c r="C23" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D23" t="s">
         <v>188</v>
@@ -1269,7 +1269,7 @@
         <v>106</v>
       </c>
       <c r="C24" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D24" t="s">
         <v>189</v>
@@ -1349,7 +1349,7 @@
         <v>110</v>
       </c>
       <c r="C28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D28" t="s">
         <v>193</v>
@@ -1409,7 +1409,7 @@
         <v>113</v>
       </c>
       <c r="C31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D31" t="s">
         <v>196</v>
@@ -1449,7 +1449,7 @@
         <v>115</v>
       </c>
       <c r="C33" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D33" t="s">
         <v>198</v>
@@ -1469,7 +1469,7 @@
         <v>116</v>
       </c>
       <c r="C34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D34" t="s">
         <v>199</v>
@@ -1529,7 +1529,7 @@
         <v>119</v>
       </c>
       <c r="C37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D37" t="s">
         <v>202</v>
@@ -1549,7 +1549,7 @@
         <v>120</v>
       </c>
       <c r="C38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D38" t="s">
         <v>203</v>
@@ -1569,7 +1569,7 @@
         <v>121</v>
       </c>
       <c r="C39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D39" t="s">
         <v>204</v>
@@ -1649,7 +1649,7 @@
         <v>125</v>
       </c>
       <c r="C43" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D43" t="s">
         <v>208</v>
@@ -1669,7 +1669,7 @@
         <v>126</v>
       </c>
       <c r="C44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D44" t="s">
         <v>209</v>
@@ -1709,7 +1709,7 @@
         <v>128</v>
       </c>
       <c r="C46" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D46" t="s">
         <v>211</v>
@@ -1769,7 +1769,7 @@
         <v>131</v>
       </c>
       <c r="C49" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D49" t="s">
         <v>214</v>
@@ -1789,7 +1789,7 @@
         <v>132</v>
       </c>
       <c r="C50" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D50" t="s">
         <v>215</v>
@@ -1809,7 +1809,7 @@
         <v>133</v>
       </c>
       <c r="C51" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D51" t="s">
         <v>216</v>
@@ -1829,7 +1829,7 @@
         <v>134</v>
       </c>
       <c r="C52" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D52" t="s">
         <v>217</v>
@@ -1869,7 +1869,7 @@
         <v>136</v>
       </c>
       <c r="C54" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D54" t="s">
         <v>219</v>
@@ -1889,7 +1889,7 @@
         <v>137</v>
       </c>
       <c r="C55" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" t="s">
         <v>220</v>
@@ -1909,7 +1909,7 @@
         <v>138</v>
       </c>
       <c r="C56" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D56" t="s">
         <v>221</v>
@@ -1929,7 +1929,7 @@
         <v>139</v>
       </c>
       <c r="C57" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D57" t="s">
         <v>222</v>
@@ -1949,7 +1949,7 @@
         <v>140</v>
       </c>
       <c r="C58" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D58" t="s">
         <v>223</v>
@@ -1969,7 +1969,7 @@
         <v>141</v>
       </c>
       <c r="C59" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D59" t="s">
         <v>224</v>
@@ -2009,7 +2009,7 @@
         <v>143</v>
       </c>
       <c r="C61" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D61" t="s">
         <v>226</v>
@@ -2029,7 +2029,7 @@
         <v>144</v>
       </c>
       <c r="C62" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D62" t="s">
         <v>227</v>
@@ -2109,7 +2109,7 @@
         <v>148</v>
       </c>
       <c r="C66" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D66" t="s">
         <v>231</v>
@@ -2129,7 +2129,7 @@
         <v>149</v>
       </c>
       <c r="C67" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D67" t="s">
         <v>232</v>
@@ -2149,7 +2149,7 @@
         <v>150</v>
       </c>
       <c r="C68" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D68" t="s">
         <v>233</v>
@@ -2169,7 +2169,7 @@
         <v>151</v>
       </c>
       <c r="C69" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D69" t="s">
         <v>234</v>
@@ -2189,7 +2189,7 @@
         <v>152</v>
       </c>
       <c r="C70" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D70" t="s">
         <v>235</v>
@@ -2209,7 +2209,7 @@
         <v>153</v>
       </c>
       <c r="C71" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D71" t="s">
         <v>236</v>
@@ -2249,7 +2249,7 @@
         <v>155</v>
       </c>
       <c r="C73" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D73" t="s">
         <v>238</v>
@@ -2269,7 +2269,7 @@
         <v>156</v>
       </c>
       <c r="C74" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D74" t="s">
         <v>239</v>
@@ -2289,7 +2289,7 @@
         <v>157</v>
       </c>
       <c r="C75" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D75" t="s">
         <v>240</v>
@@ -2369,7 +2369,7 @@
         <v>161</v>
       </c>
       <c r="C79" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D79" t="s">
         <v>244</v>
